--- a/LoowooTech.Stock/Excels/ExcelTDYT5B3.xlsx
+++ b/LoowooTech.Stock/Excels/ExcelTDYT5B3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,12 +242,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -258,23 +258,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,20 +281,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -317,34 +356,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,9 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,31 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +408,168 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -429,169 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,21 +653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -702,7 +687,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,7 +711,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,11 +736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,133 +770,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:AGC9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C$1:D$1048576"/>
+      <selection activeCell="C9" sqref="C9:AGC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10739,865 +10739,865 @@
         <v>68</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9"/>
-      <c r="BI9" s="9"/>
-      <c r="BJ9" s="9"/>
-      <c r="BK9" s="9"/>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
-      <c r="BO9" s="9"/>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="9"/>
-      <c r="BR9" s="9"/>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
-      <c r="BU9" s="9"/>
-      <c r="BV9" s="9"/>
-      <c r="BW9" s="9"/>
-      <c r="BX9" s="9"/>
-      <c r="BY9" s="9"/>
-      <c r="BZ9" s="9"/>
-      <c r="CA9" s="9"/>
-      <c r="CB9" s="9"/>
-      <c r="CC9" s="9"/>
-      <c r="CD9" s="9"/>
-      <c r="CE9" s="9"/>
-      <c r="CF9" s="9"/>
-      <c r="CG9" s="9"/>
-      <c r="CH9" s="9"/>
-      <c r="CI9" s="9"/>
-      <c r="CJ9" s="9"/>
-      <c r="CK9" s="9"/>
-      <c r="CL9" s="9"/>
-      <c r="CM9" s="9"/>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="9"/>
-      <c r="CP9" s="9"/>
-      <c r="CQ9" s="9"/>
-      <c r="CR9" s="9"/>
-      <c r="CS9" s="9"/>
-      <c r="CT9" s="9"/>
-      <c r="CU9" s="9"/>
-      <c r="CV9" s="9"/>
-      <c r="CW9" s="9"/>
-      <c r="CX9" s="9"/>
-      <c r="CY9" s="9"/>
-      <c r="CZ9" s="9"/>
-      <c r="DA9" s="9"/>
-      <c r="DB9" s="9"/>
-      <c r="DC9" s="9"/>
-      <c r="DD9" s="9"/>
-      <c r="DE9" s="9"/>
-      <c r="DF9" s="9"/>
-      <c r="DG9" s="9"/>
-      <c r="DH9" s="9"/>
-      <c r="DI9" s="9"/>
-      <c r="DJ9" s="9"/>
-      <c r="DK9" s="9"/>
-      <c r="DL9" s="9"/>
-      <c r="DM9" s="9"/>
-      <c r="DN9" s="9"/>
-      <c r="DO9" s="9"/>
-      <c r="DP9" s="9"/>
-      <c r="DQ9" s="9"/>
-      <c r="DR9" s="9"/>
-      <c r="DS9" s="9"/>
-      <c r="DT9" s="9"/>
-      <c r="DU9" s="9"/>
-      <c r="DV9" s="9"/>
-      <c r="DW9" s="9"/>
-      <c r="DX9" s="9"/>
-      <c r="DY9" s="9"/>
-      <c r="DZ9" s="9"/>
-      <c r="EA9" s="9"/>
-      <c r="EB9" s="9"/>
-      <c r="EC9" s="9"/>
-      <c r="ED9" s="9"/>
-      <c r="EE9" s="9"/>
-      <c r="EF9" s="9"/>
-      <c r="EG9" s="9"/>
-      <c r="EH9" s="9"/>
-      <c r="EI9" s="9"/>
-      <c r="EJ9" s="9"/>
-      <c r="EK9" s="9"/>
-      <c r="EL9" s="9"/>
-      <c r="EM9" s="9"/>
-      <c r="EN9" s="9"/>
-      <c r="EO9" s="9"/>
-      <c r="EP9" s="9"/>
-      <c r="EQ9" s="9"/>
-      <c r="ER9" s="9"/>
-      <c r="ES9" s="9"/>
-      <c r="ET9" s="9"/>
-      <c r="EU9" s="9"/>
-      <c r="EV9" s="9"/>
-      <c r="EW9" s="9"/>
-      <c r="EX9" s="9"/>
-      <c r="EY9" s="9"/>
-      <c r="EZ9" s="9"/>
-      <c r="FA9" s="9"/>
-      <c r="FB9" s="9"/>
-      <c r="FC9" s="9"/>
-      <c r="FD9" s="9"/>
-      <c r="FE9" s="9"/>
-      <c r="FF9" s="9"/>
-      <c r="FG9" s="9"/>
-      <c r="FH9" s="9"/>
-      <c r="FI9" s="9"/>
-      <c r="FJ9" s="9"/>
-      <c r="FK9" s="9"/>
-      <c r="FL9" s="9"/>
-      <c r="FM9" s="9"/>
-      <c r="FN9" s="9"/>
-      <c r="FO9" s="9"/>
-      <c r="FP9" s="9"/>
-      <c r="FQ9" s="9"/>
-      <c r="FR9" s="9"/>
-      <c r="FS9" s="9"/>
-      <c r="FT9" s="9"/>
-      <c r="FU9" s="9"/>
-      <c r="FV9" s="9"/>
-      <c r="FW9" s="9"/>
-      <c r="FX9" s="9"/>
-      <c r="FY9" s="9"/>
-      <c r="FZ9" s="9"/>
-      <c r="GA9" s="9"/>
-      <c r="GB9" s="9"/>
-      <c r="GC9" s="9"/>
-      <c r="GD9" s="9"/>
-      <c r="GE9" s="9"/>
-      <c r="GF9" s="9"/>
-      <c r="GG9" s="9"/>
-      <c r="GH9" s="9"/>
-      <c r="GI9" s="9"/>
-      <c r="GJ9" s="9"/>
-      <c r="GK9" s="9"/>
-      <c r="GL9" s="9"/>
-      <c r="GM9" s="9"/>
-      <c r="GN9" s="9"/>
-      <c r="GO9" s="9"/>
-      <c r="GP9" s="9"/>
-      <c r="GQ9" s="9"/>
-      <c r="GR9" s="9"/>
-      <c r="GS9" s="9"/>
-      <c r="GT9" s="9"/>
-      <c r="GU9" s="9"/>
-      <c r="GV9" s="9"/>
-      <c r="GW9" s="9"/>
-      <c r="GX9" s="9"/>
-      <c r="GY9" s="9"/>
-      <c r="GZ9" s="9"/>
-      <c r="HA9" s="9"/>
-      <c r="HB9" s="9"/>
-      <c r="HC9" s="9"/>
-      <c r="HD9" s="9"/>
-      <c r="HE9" s="9"/>
-      <c r="HF9" s="9"/>
-      <c r="HG9" s="9"/>
-      <c r="HH9" s="9"/>
-      <c r="HI9" s="9"/>
-      <c r="HJ9" s="9"/>
-      <c r="HK9" s="9"/>
-      <c r="HL9" s="9"/>
-      <c r="HM9" s="9"/>
-      <c r="HN9" s="9"/>
-      <c r="HO9" s="9"/>
-      <c r="HP9" s="9"/>
-      <c r="HQ9" s="9"/>
-      <c r="HR9" s="9"/>
-      <c r="HS9" s="9"/>
-      <c r="HT9" s="9"/>
-      <c r="HU9" s="9"/>
-      <c r="HV9" s="9"/>
-      <c r="HW9" s="9"/>
-      <c r="HX9" s="9"/>
-      <c r="HY9" s="9"/>
-      <c r="HZ9" s="9"/>
-      <c r="IA9" s="9"/>
-      <c r="IB9" s="9"/>
-      <c r="IC9" s="9"/>
-      <c r="ID9" s="9"/>
-      <c r="IE9" s="9"/>
-      <c r="IF9" s="9"/>
-      <c r="IG9" s="9"/>
-      <c r="IH9" s="9"/>
-      <c r="II9" s="9"/>
-      <c r="IJ9" s="9"/>
-      <c r="IK9" s="9"/>
-      <c r="IL9" s="9"/>
-      <c r="IM9" s="9"/>
-      <c r="IN9" s="9"/>
-      <c r="IO9" s="9"/>
-      <c r="IP9" s="9"/>
-      <c r="IQ9" s="9"/>
-      <c r="IR9" s="9"/>
-      <c r="IS9" s="9"/>
-      <c r="IT9" s="9"/>
-      <c r="IU9" s="9"/>
-      <c r="IV9" s="9"/>
-      <c r="IW9" s="9"/>
-      <c r="IX9" s="9"/>
-      <c r="IY9" s="9"/>
-      <c r="IZ9" s="9"/>
-      <c r="JA9" s="9"/>
-      <c r="JB9" s="9"/>
-      <c r="JC9" s="9"/>
-      <c r="JD9" s="9"/>
-      <c r="JE9" s="9"/>
-      <c r="JF9" s="9"/>
-      <c r="JG9" s="9"/>
-      <c r="JH9" s="9"/>
-      <c r="JI9" s="9"/>
-      <c r="JJ9" s="9"/>
-      <c r="JK9" s="9"/>
-      <c r="JL9" s="9"/>
-      <c r="JM9" s="9"/>
-      <c r="JN9" s="9"/>
-      <c r="JO9" s="9"/>
-      <c r="JP9" s="9"/>
-      <c r="JQ9" s="9"/>
-      <c r="JR9" s="9"/>
-      <c r="JS9" s="9"/>
-      <c r="JT9" s="9"/>
-      <c r="JU9" s="9"/>
-      <c r="JV9" s="9"/>
-      <c r="JW9" s="9"/>
-      <c r="JX9" s="9"/>
-      <c r="JY9" s="9"/>
-      <c r="JZ9" s="9"/>
-      <c r="KA9" s="9"/>
-      <c r="KB9" s="9"/>
-      <c r="KC9" s="9"/>
-      <c r="KD9" s="9"/>
-      <c r="KE9" s="9"/>
-      <c r="KF9" s="9"/>
-      <c r="KG9" s="9"/>
-      <c r="KH9" s="9"/>
-      <c r="KI9" s="9"/>
-      <c r="KJ9" s="9"/>
-      <c r="KK9" s="9"/>
-      <c r="KL9" s="9"/>
-      <c r="KM9" s="9"/>
-      <c r="KN9" s="9"/>
-      <c r="KO9" s="9"/>
-      <c r="KP9" s="9"/>
-      <c r="KQ9" s="9"/>
-      <c r="KR9" s="9"/>
-      <c r="KS9" s="9"/>
-      <c r="KT9" s="9"/>
-      <c r="KU9" s="9"/>
-      <c r="KV9" s="9"/>
-      <c r="KW9" s="9"/>
-      <c r="KX9" s="9"/>
-      <c r="KY9" s="9"/>
-      <c r="KZ9" s="9"/>
-      <c r="LA9" s="9"/>
-      <c r="LB9" s="9"/>
-      <c r="LC9" s="9"/>
-      <c r="LD9" s="9"/>
-      <c r="LE9" s="9"/>
-      <c r="LF9" s="9"/>
-      <c r="LG9" s="9"/>
-      <c r="LH9" s="9"/>
-      <c r="LI9" s="9"/>
-      <c r="LJ9" s="9"/>
-      <c r="LK9" s="9"/>
-      <c r="LL9" s="9"/>
-      <c r="LM9" s="9"/>
-      <c r="LN9" s="9"/>
-      <c r="LO9" s="9"/>
-      <c r="LP9" s="9"/>
-      <c r="LQ9" s="9"/>
-      <c r="LR9" s="9"/>
-      <c r="LS9" s="9"/>
-      <c r="LT9" s="9"/>
-      <c r="LU9" s="9"/>
-      <c r="LV9" s="9"/>
-      <c r="LW9" s="9"/>
-      <c r="LX9" s="9"/>
-      <c r="LY9" s="9"/>
-      <c r="LZ9" s="9"/>
-      <c r="MA9" s="9"/>
-      <c r="MB9" s="9"/>
-      <c r="MC9" s="9"/>
-      <c r="MD9" s="9"/>
-      <c r="ME9" s="9"/>
-      <c r="MF9" s="9"/>
-      <c r="MG9" s="9"/>
-      <c r="MH9" s="9"/>
-      <c r="MI9" s="9"/>
-      <c r="MJ9" s="9"/>
-      <c r="MK9" s="9"/>
-      <c r="ML9" s="9"/>
-      <c r="MM9" s="9"/>
-      <c r="MN9" s="9"/>
-      <c r="MO9" s="9"/>
-      <c r="MP9" s="9"/>
-      <c r="MQ9" s="9"/>
-      <c r="MR9" s="9"/>
-      <c r="MS9" s="9"/>
-      <c r="MT9" s="9"/>
-      <c r="MU9" s="9"/>
-      <c r="MV9" s="9"/>
-      <c r="MW9" s="9"/>
-      <c r="MX9" s="9"/>
-      <c r="MY9" s="9"/>
-      <c r="MZ9" s="9"/>
-      <c r="NA9" s="9"/>
-      <c r="NB9" s="9"/>
-      <c r="NC9" s="9"/>
-      <c r="ND9" s="9"/>
-      <c r="NE9" s="9"/>
-      <c r="NF9" s="9"/>
-      <c r="NG9" s="9"/>
-      <c r="NH9" s="9"/>
-      <c r="NI9" s="9"/>
-      <c r="NJ9" s="9"/>
-      <c r="NK9" s="9"/>
-      <c r="NL9" s="9"/>
-      <c r="NM9" s="9"/>
-      <c r="NN9" s="9"/>
-      <c r="NO9" s="9"/>
-      <c r="NP9" s="9"/>
-      <c r="NQ9" s="9"/>
-      <c r="NR9" s="9"/>
-      <c r="NS9" s="9"/>
-      <c r="NT9" s="9"/>
-      <c r="NU9" s="9"/>
-      <c r="NV9" s="9"/>
-      <c r="NW9" s="9"/>
-      <c r="NX9" s="9"/>
-      <c r="NY9" s="9"/>
-      <c r="NZ9" s="9"/>
-      <c r="OA9" s="9"/>
-      <c r="OB9" s="9"/>
-      <c r="OC9" s="9"/>
-      <c r="OD9" s="9"/>
-      <c r="OE9" s="9"/>
-      <c r="OF9" s="9"/>
-      <c r="OG9" s="9"/>
-      <c r="OH9" s="9"/>
-      <c r="OI9" s="9"/>
-      <c r="OJ9" s="9"/>
-      <c r="OK9" s="9"/>
-      <c r="OL9" s="9"/>
-      <c r="OM9" s="9"/>
-      <c r="ON9" s="9"/>
-      <c r="OO9" s="9"/>
-      <c r="OP9" s="9"/>
-      <c r="OQ9" s="9"/>
-      <c r="OR9" s="9"/>
-      <c r="OS9" s="9"/>
-      <c r="OT9" s="9"/>
-      <c r="OU9" s="9"/>
-      <c r="OV9" s="9"/>
-      <c r="OW9" s="9"/>
-      <c r="OX9" s="9"/>
-      <c r="OY9" s="9"/>
-      <c r="OZ9" s="9"/>
-      <c r="PA9" s="9"/>
-      <c r="PB9" s="9"/>
-      <c r="PC9" s="9"/>
-      <c r="PD9" s="9"/>
-      <c r="PE9" s="9"/>
-      <c r="PF9" s="9"/>
-      <c r="PG9" s="9"/>
-      <c r="PH9" s="9"/>
-      <c r="PI9" s="9"/>
-      <c r="PJ9" s="9"/>
-      <c r="PK9" s="9"/>
-      <c r="PL9" s="9"/>
-      <c r="PM9" s="9"/>
-      <c r="PN9" s="9"/>
-      <c r="PO9" s="9"/>
-      <c r="PP9" s="9"/>
-      <c r="PQ9" s="9"/>
-      <c r="PR9" s="9"/>
-      <c r="PS9" s="9"/>
-      <c r="PT9" s="9"/>
-      <c r="PU9" s="9"/>
-      <c r="PV9" s="9"/>
-      <c r="PW9" s="9"/>
-      <c r="PX9" s="9"/>
-      <c r="PY9" s="9"/>
-      <c r="PZ9" s="9"/>
-      <c r="QA9" s="9"/>
-      <c r="QB9" s="9"/>
-      <c r="QC9" s="9"/>
-      <c r="QD9" s="9"/>
-      <c r="QE9" s="9"/>
-      <c r="QF9" s="9"/>
-      <c r="QG9" s="9"/>
-      <c r="QH9" s="9"/>
-      <c r="QI9" s="9"/>
-      <c r="QJ9" s="9"/>
-      <c r="QK9" s="9"/>
-      <c r="QL9" s="9"/>
-      <c r="QM9" s="9"/>
-      <c r="QN9" s="9"/>
-      <c r="QO9" s="9"/>
-      <c r="QP9" s="9"/>
-      <c r="QQ9" s="9"/>
-      <c r="QR9" s="9"/>
-      <c r="QS9" s="9"/>
-      <c r="QT9" s="9"/>
-      <c r="QU9" s="9"/>
-      <c r="QV9" s="9"/>
-      <c r="QW9" s="9"/>
-      <c r="QX9" s="9"/>
-      <c r="QY9" s="9"/>
-      <c r="QZ9" s="9"/>
-      <c r="RA9" s="9"/>
-      <c r="RB9" s="9"/>
-      <c r="RC9" s="9"/>
-      <c r="RD9" s="9"/>
-      <c r="RE9" s="9"/>
-      <c r="RF9" s="9"/>
-      <c r="RG9" s="9"/>
-      <c r="RH9" s="9"/>
-      <c r="RI9" s="9"/>
-      <c r="RJ9" s="9"/>
-      <c r="RK9" s="9"/>
-      <c r="RL9" s="9"/>
-      <c r="RM9" s="9"/>
-      <c r="RN9" s="9"/>
-      <c r="RO9" s="9"/>
-      <c r="RP9" s="9"/>
-      <c r="RQ9" s="9"/>
-      <c r="RR9" s="9"/>
-      <c r="RS9" s="9"/>
-      <c r="RT9" s="9"/>
-      <c r="RU9" s="9"/>
-      <c r="RV9" s="9"/>
-      <c r="RW9" s="9"/>
-      <c r="RX9" s="9"/>
-      <c r="RY9" s="9"/>
-      <c r="RZ9" s="9"/>
-      <c r="SA9" s="9"/>
-      <c r="SB9" s="9"/>
-      <c r="SC9" s="9"/>
-      <c r="SD9" s="9"/>
-      <c r="SE9" s="9"/>
-      <c r="SF9" s="9"/>
-      <c r="SG9" s="9"/>
-      <c r="SH9" s="9"/>
-      <c r="SI9" s="9"/>
-      <c r="SJ9" s="9"/>
-      <c r="SK9" s="9"/>
-      <c r="SL9" s="9"/>
-      <c r="SM9" s="9"/>
-      <c r="SN9" s="9"/>
-      <c r="SO9" s="9"/>
-      <c r="SP9" s="9"/>
-      <c r="SQ9" s="9"/>
-      <c r="SR9" s="9"/>
-      <c r="SS9" s="9"/>
-      <c r="ST9" s="9"/>
-      <c r="SU9" s="9"/>
-      <c r="SV9" s="9"/>
-      <c r="SW9" s="9"/>
-      <c r="SX9" s="9"/>
-      <c r="SY9" s="9"/>
-      <c r="SZ9" s="9"/>
-      <c r="TA9" s="9"/>
-      <c r="TB9" s="9"/>
-      <c r="TC9" s="9"/>
-      <c r="TD9" s="9"/>
-      <c r="TE9" s="9"/>
-      <c r="TF9" s="9"/>
-      <c r="TG9" s="9"/>
-      <c r="TH9" s="9"/>
-      <c r="TI9" s="9"/>
-      <c r="TJ9" s="9"/>
-      <c r="TK9" s="9"/>
-      <c r="TL9" s="9"/>
-      <c r="TM9" s="9"/>
-      <c r="TN9" s="9"/>
-      <c r="TO9" s="9"/>
-      <c r="TP9" s="9"/>
-      <c r="TQ9" s="9"/>
-      <c r="TR9" s="9"/>
-      <c r="TS9" s="9"/>
-      <c r="TT9" s="9"/>
-      <c r="TU9" s="9"/>
-      <c r="TV9" s="9"/>
-      <c r="TW9" s="9"/>
-      <c r="TX9" s="9"/>
-      <c r="TY9" s="9"/>
-      <c r="TZ9" s="9"/>
-      <c r="UA9" s="9"/>
-      <c r="UB9" s="9"/>
-      <c r="UC9" s="9"/>
-      <c r="UD9" s="9"/>
-      <c r="UE9" s="9"/>
-      <c r="UF9" s="9"/>
-      <c r="UG9" s="9"/>
-      <c r="UH9" s="9"/>
-      <c r="UI9" s="9"/>
-      <c r="UJ9" s="9"/>
-      <c r="UK9" s="9"/>
-      <c r="UL9" s="9"/>
-      <c r="UM9" s="9"/>
-      <c r="UN9" s="9"/>
-      <c r="UO9" s="9"/>
-      <c r="UP9" s="9"/>
-      <c r="UQ9" s="9"/>
-      <c r="UR9" s="9"/>
-      <c r="US9" s="9"/>
-      <c r="UT9" s="9"/>
-      <c r="UU9" s="9"/>
-      <c r="UV9" s="9"/>
-      <c r="UW9" s="9"/>
-      <c r="UX9" s="9"/>
-      <c r="UY9" s="9"/>
-      <c r="UZ9" s="9"/>
-      <c r="VA9" s="9"/>
-      <c r="VB9" s="9"/>
-      <c r="VC9" s="9"/>
-      <c r="VD9" s="9"/>
-      <c r="VE9" s="9"/>
-      <c r="VF9" s="9"/>
-      <c r="VG9" s="9"/>
-      <c r="VH9" s="9"/>
-      <c r="VI9" s="9"/>
-      <c r="VJ9" s="9"/>
-      <c r="VK9" s="9"/>
-      <c r="VL9" s="9"/>
-      <c r="VM9" s="9"/>
-      <c r="VN9" s="9"/>
-      <c r="VO9" s="9"/>
-      <c r="VP9" s="9"/>
-      <c r="VQ9" s="9"/>
-      <c r="VR9" s="9"/>
-      <c r="VS9" s="9"/>
-      <c r="VT9" s="9"/>
-      <c r="VU9" s="9"/>
-      <c r="VV9" s="9"/>
-      <c r="VW9" s="9"/>
-      <c r="VX9" s="9"/>
-      <c r="VY9" s="9"/>
-      <c r="VZ9" s="9"/>
-      <c r="WA9" s="9"/>
-      <c r="WB9" s="9"/>
-      <c r="WC9" s="9"/>
-      <c r="WD9" s="9"/>
-      <c r="WE9" s="9"/>
-      <c r="WF9" s="9"/>
-      <c r="WG9" s="9"/>
-      <c r="WH9" s="9"/>
-      <c r="WI9" s="9"/>
-      <c r="WJ9" s="9"/>
-      <c r="WK9" s="9"/>
-      <c r="WL9" s="9"/>
-      <c r="WM9" s="9"/>
-      <c r="WN9" s="9"/>
-      <c r="WO9" s="9"/>
-      <c r="WP9" s="9"/>
-      <c r="WQ9" s="9"/>
-      <c r="WR9" s="9"/>
-      <c r="WS9" s="9"/>
-      <c r="WT9" s="9"/>
-      <c r="WU9" s="9"/>
-      <c r="WV9" s="9"/>
-      <c r="WW9" s="9"/>
-      <c r="WX9" s="9"/>
-      <c r="WY9" s="9"/>
-      <c r="WZ9" s="9"/>
-      <c r="XA9" s="9"/>
-      <c r="XB9" s="9"/>
-      <c r="XC9" s="9"/>
-      <c r="XD9" s="9"/>
-      <c r="XE9" s="9"/>
-      <c r="XF9" s="9"/>
-      <c r="XG9" s="9"/>
-      <c r="XH9" s="9"/>
-      <c r="XI9" s="9"/>
-      <c r="XJ9" s="9"/>
-      <c r="XK9" s="9"/>
-      <c r="XL9" s="9"/>
-      <c r="XM9" s="9"/>
-      <c r="XN9" s="9"/>
-      <c r="XO9" s="9"/>
-      <c r="XP9" s="9"/>
-      <c r="XQ9" s="9"/>
-      <c r="XR9" s="9"/>
-      <c r="XS9" s="9"/>
-      <c r="XT9" s="9"/>
-      <c r="XU9" s="9"/>
-      <c r="XV9" s="9"/>
-      <c r="XW9" s="9"/>
-      <c r="XX9" s="9"/>
-      <c r="XY9" s="9"/>
-      <c r="XZ9" s="9"/>
-      <c r="YA9" s="9"/>
-      <c r="YB9" s="9"/>
-      <c r="YC9" s="9"/>
-      <c r="YD9" s="9"/>
-      <c r="YE9" s="9"/>
-      <c r="YF9" s="9"/>
-      <c r="YG9" s="9"/>
-      <c r="YH9" s="9"/>
-      <c r="YI9" s="9"/>
-      <c r="YJ9" s="9"/>
-      <c r="YK9" s="9"/>
-      <c r="YL9" s="9"/>
-      <c r="YM9" s="9"/>
-      <c r="YN9" s="9"/>
-      <c r="YO9" s="9"/>
-      <c r="YP9" s="9"/>
-      <c r="YQ9" s="9"/>
-      <c r="YR9" s="9"/>
-      <c r="YS9" s="9"/>
-      <c r="YT9" s="9"/>
-      <c r="YU9" s="9"/>
-      <c r="YV9" s="9"/>
-      <c r="YW9" s="9"/>
-      <c r="YX9" s="9"/>
-      <c r="YY9" s="9"/>
-      <c r="YZ9" s="9"/>
-      <c r="ZA9" s="9"/>
-      <c r="ZB9" s="9"/>
-      <c r="ZC9" s="9"/>
-      <c r="ZD9" s="9"/>
-      <c r="ZE9" s="9"/>
-      <c r="ZF9" s="9"/>
-      <c r="ZG9" s="9"/>
-      <c r="ZH9" s="9"/>
-      <c r="ZI9" s="9"/>
-      <c r="ZJ9" s="9"/>
-      <c r="ZK9" s="9"/>
-      <c r="ZL9" s="9"/>
-      <c r="ZM9" s="9"/>
-      <c r="ZN9" s="9"/>
-      <c r="ZO9" s="9"/>
-      <c r="ZP9" s="9"/>
-      <c r="ZQ9" s="9"/>
-      <c r="ZR9" s="9"/>
-      <c r="ZS9" s="9"/>
-      <c r="ZT9" s="9"/>
-      <c r="ZU9" s="9"/>
-      <c r="ZV9" s="9"/>
-      <c r="ZW9" s="9"/>
-      <c r="ZX9" s="9"/>
-      <c r="ZY9" s="9"/>
-      <c r="ZZ9" s="9"/>
-      <c r="AAA9" s="9"/>
-      <c r="AAB9" s="9"/>
-      <c r="AAC9" s="9"/>
-      <c r="AAD9" s="9"/>
-      <c r="AAE9" s="9"/>
-      <c r="AAF9" s="9"/>
-      <c r="AAG9" s="9"/>
-      <c r="AAH9" s="9"/>
-      <c r="AAI9" s="9"/>
-      <c r="AAJ9" s="9"/>
-      <c r="AAK9" s="9"/>
-      <c r="AAL9" s="9"/>
-      <c r="AAM9" s="9"/>
-      <c r="AAN9" s="9"/>
-      <c r="AAO9" s="9"/>
-      <c r="AAP9" s="9"/>
-      <c r="AAQ9" s="9"/>
-      <c r="AAR9" s="9"/>
-      <c r="AAS9" s="9"/>
-      <c r="AAT9" s="9"/>
-      <c r="AAU9" s="9"/>
-      <c r="AAV9" s="9"/>
-      <c r="AAW9" s="9"/>
-      <c r="AAX9" s="9"/>
-      <c r="AAY9" s="9"/>
-      <c r="AAZ9" s="9"/>
-      <c r="ABA9" s="9"/>
-      <c r="ABB9" s="9"/>
-      <c r="ABC9" s="9"/>
-      <c r="ABD9" s="9"/>
-      <c r="ABE9" s="9"/>
-      <c r="ABF9" s="9"/>
-      <c r="ABG9" s="9"/>
-      <c r="ABH9" s="9"/>
-      <c r="ABI9" s="9"/>
-      <c r="ABJ9" s="9"/>
-      <c r="ABK9" s="9"/>
-      <c r="ABL9" s="9"/>
-      <c r="ABM9" s="9"/>
-      <c r="ABN9" s="9"/>
-      <c r="ABO9" s="9"/>
-      <c r="ABP9" s="9"/>
-      <c r="ABQ9" s="9"/>
-      <c r="ABR9" s="9"/>
-      <c r="ABS9" s="9"/>
-      <c r="ABT9" s="9"/>
-      <c r="ABU9" s="9"/>
-      <c r="ABV9" s="9"/>
-      <c r="ABW9" s="9"/>
-      <c r="ABX9" s="9"/>
-      <c r="ABY9" s="9"/>
-      <c r="ABZ9" s="9"/>
-      <c r="ACA9" s="9"/>
-      <c r="ACB9" s="9"/>
-      <c r="ACC9" s="9"/>
-      <c r="ACD9" s="9"/>
-      <c r="ACE9" s="9"/>
-      <c r="ACF9" s="9"/>
-      <c r="ACG9" s="9"/>
-      <c r="ACH9" s="9"/>
-      <c r="ACI9" s="9"/>
-      <c r="ACJ9" s="9"/>
-      <c r="ACK9" s="9"/>
-      <c r="ACL9" s="9"/>
-      <c r="ACM9" s="9"/>
-      <c r="ACN9" s="9"/>
-      <c r="ACO9" s="9"/>
-      <c r="ACP9" s="9"/>
-      <c r="ACQ9" s="9"/>
-      <c r="ACR9" s="9"/>
-      <c r="ACS9" s="9"/>
-      <c r="ACT9" s="9"/>
-      <c r="ACU9" s="9"/>
-      <c r="ACV9" s="9"/>
-      <c r="ACW9" s="9"/>
-      <c r="ACX9" s="9"/>
-      <c r="ACY9" s="9"/>
-      <c r="ACZ9" s="9"/>
-      <c r="ADA9" s="9"/>
-      <c r="ADB9" s="9"/>
-      <c r="ADC9" s="9"/>
-      <c r="ADD9" s="9"/>
-      <c r="ADE9" s="9"/>
-      <c r="ADF9" s="9"/>
-      <c r="ADG9" s="9"/>
-      <c r="ADH9" s="9"/>
-      <c r="ADI9" s="9"/>
-      <c r="ADJ9" s="9"/>
-      <c r="ADK9" s="9"/>
-      <c r="ADL9" s="9"/>
-      <c r="ADM9" s="9"/>
-      <c r="ADN9" s="9"/>
-      <c r="ADO9" s="9"/>
-      <c r="ADP9" s="9"/>
-      <c r="ADQ9" s="9"/>
-      <c r="ADR9" s="9"/>
-      <c r="ADS9" s="9"/>
-      <c r="ADT9" s="9"/>
-      <c r="ADU9" s="9"/>
-      <c r="ADV9" s="9"/>
-      <c r="ADW9" s="9"/>
-      <c r="ADX9" s="9"/>
-      <c r="ADY9" s="9"/>
-      <c r="ADZ9" s="9"/>
-      <c r="AEA9" s="9"/>
-      <c r="AEB9" s="9"/>
-      <c r="AEC9" s="9"/>
-      <c r="AED9" s="9"/>
-      <c r="AEE9" s="9"/>
-      <c r="AEF9" s="9"/>
-      <c r="AEG9" s="9"/>
-      <c r="AEH9" s="9"/>
-      <c r="AEI9" s="9"/>
-      <c r="AEJ9" s="9"/>
-      <c r="AEK9" s="9"/>
-      <c r="AEL9" s="9"/>
-      <c r="AEM9" s="9"/>
-      <c r="AEN9" s="9"/>
-      <c r="AEO9" s="9"/>
-      <c r="AEP9" s="9"/>
-      <c r="AEQ9" s="9"/>
-      <c r="AER9" s="9"/>
-      <c r="AES9" s="9"/>
-      <c r="AET9" s="9"/>
-      <c r="AEU9" s="9"/>
-      <c r="AEV9" s="9"/>
-      <c r="AEW9" s="9"/>
-      <c r="AEX9" s="9"/>
-      <c r="AEY9" s="9"/>
-      <c r="AEZ9" s="9"/>
-      <c r="AFA9" s="9"/>
-      <c r="AFB9" s="9"/>
-      <c r="AFC9" s="9"/>
-      <c r="AFD9" s="9"/>
-      <c r="AFE9" s="9"/>
-      <c r="AFF9" s="9"/>
-      <c r="AFG9" s="9"/>
-      <c r="AFH9" s="9"/>
-      <c r="AFI9" s="9"/>
-      <c r="AFJ9" s="9"/>
-      <c r="AFK9" s="9"/>
-      <c r="AFL9" s="9"/>
-      <c r="AFM9" s="9"/>
-      <c r="AFN9" s="9"/>
-      <c r="AFO9" s="9"/>
-      <c r="AFP9" s="9"/>
-      <c r="AFQ9" s="9"/>
-      <c r="AFR9" s="9"/>
-      <c r="AFS9" s="9"/>
-      <c r="AFT9" s="9"/>
-      <c r="AFU9" s="9"/>
-      <c r="AFV9" s="9"/>
-      <c r="AFW9" s="9"/>
-      <c r="AFX9" s="9"/>
-      <c r="AFY9" s="9"/>
-      <c r="AFZ9" s="9"/>
-      <c r="AGA9" s="9"/>
-      <c r="AGB9" s="9"/>
-      <c r="AGC9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="11"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="11"/>
+      <c r="BY9" s="11"/>
+      <c r="BZ9" s="10"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="11"/>
+      <c r="CC9" s="10"/>
+      <c r="CD9" s="11"/>
+      <c r="CE9" s="11"/>
+      <c r="CF9" s="10"/>
+      <c r="CG9" s="11"/>
+      <c r="CH9" s="11"/>
+      <c r="CI9" s="10"/>
+      <c r="CJ9" s="11"/>
+      <c r="CK9" s="11"/>
+      <c r="CL9" s="10"/>
+      <c r="CM9" s="11"/>
+      <c r="CN9" s="11"/>
+      <c r="CO9" s="10"/>
+      <c r="CP9" s="11"/>
+      <c r="CQ9" s="11"/>
+      <c r="CR9" s="10"/>
+      <c r="CS9" s="11"/>
+      <c r="CT9" s="11"/>
+      <c r="CU9" s="10"/>
+      <c r="CV9" s="11"/>
+      <c r="CW9" s="11"/>
+      <c r="CX9" s="10"/>
+      <c r="CY9" s="11"/>
+      <c r="CZ9" s="11"/>
+      <c r="DA9" s="10"/>
+      <c r="DB9" s="11"/>
+      <c r="DC9" s="11"/>
+      <c r="DD9" s="10"/>
+      <c r="DE9" s="11"/>
+      <c r="DF9" s="11"/>
+      <c r="DG9" s="10"/>
+      <c r="DH9" s="11"/>
+      <c r="DI9" s="11"/>
+      <c r="DJ9" s="10"/>
+      <c r="DK9" s="11"/>
+      <c r="DL9" s="11"/>
+      <c r="DM9" s="10"/>
+      <c r="DN9" s="11"/>
+      <c r="DO9" s="11"/>
+      <c r="DP9" s="10"/>
+      <c r="DQ9" s="11"/>
+      <c r="DR9" s="11"/>
+      <c r="DS9" s="10"/>
+      <c r="DT9" s="11"/>
+      <c r="DU9" s="11"/>
+      <c r="DV9" s="10"/>
+      <c r="DW9" s="11"/>
+      <c r="DX9" s="11"/>
+      <c r="DY9" s="10"/>
+      <c r="DZ9" s="11"/>
+      <c r="EA9" s="11"/>
+      <c r="EB9" s="10"/>
+      <c r="EC9" s="11"/>
+      <c r="ED9" s="11"/>
+      <c r="EE9" s="10"/>
+      <c r="EF9" s="11"/>
+      <c r="EG9" s="11"/>
+      <c r="EH9" s="10"/>
+      <c r="EI9" s="11"/>
+      <c r="EJ9" s="11"/>
+      <c r="EK9" s="10"/>
+      <c r="EL9" s="11"/>
+      <c r="EM9" s="11"/>
+      <c r="EN9" s="10"/>
+      <c r="EO9" s="11"/>
+      <c r="EP9" s="11"/>
+      <c r="EQ9" s="10"/>
+      <c r="ER9" s="11"/>
+      <c r="ES9" s="11"/>
+      <c r="ET9" s="10"/>
+      <c r="EU9" s="11"/>
+      <c r="EV9" s="11"/>
+      <c r="EW9" s="10"/>
+      <c r="EX9" s="11"/>
+      <c r="EY9" s="11"/>
+      <c r="EZ9" s="10"/>
+      <c r="FA9" s="11"/>
+      <c r="FB9" s="11"/>
+      <c r="FC9" s="10"/>
+      <c r="FD9" s="11"/>
+      <c r="FE9" s="11"/>
+      <c r="FF9" s="10"/>
+      <c r="FG9" s="11"/>
+      <c r="FH9" s="11"/>
+      <c r="FI9" s="10"/>
+      <c r="FJ9" s="11"/>
+      <c r="FK9" s="11"/>
+      <c r="FL9" s="10"/>
+      <c r="FM9" s="11"/>
+      <c r="FN9" s="11"/>
+      <c r="FO9" s="10"/>
+      <c r="FP9" s="11"/>
+      <c r="FQ9" s="11"/>
+      <c r="FR9" s="10"/>
+      <c r="FS9" s="11"/>
+      <c r="FT9" s="11"/>
+      <c r="FU9" s="10"/>
+      <c r="FV9" s="11"/>
+      <c r="FW9" s="11"/>
+      <c r="FX9" s="10"/>
+      <c r="FY9" s="11"/>
+      <c r="FZ9" s="11"/>
+      <c r="GA9" s="10"/>
+      <c r="GB9" s="11"/>
+      <c r="GC9" s="11"/>
+      <c r="GD9" s="10"/>
+      <c r="GE9" s="11"/>
+      <c r="GF9" s="11"/>
+      <c r="GG9" s="10"/>
+      <c r="GH9" s="11"/>
+      <c r="GI9" s="11"/>
+      <c r="GJ9" s="10"/>
+      <c r="GK9" s="11"/>
+      <c r="GL9" s="11"/>
+      <c r="GM9" s="10"/>
+      <c r="GN9" s="11"/>
+      <c r="GO9" s="11"/>
+      <c r="GP9" s="10"/>
+      <c r="GQ9" s="11"/>
+      <c r="GR9" s="11"/>
+      <c r="GS9" s="10"/>
+      <c r="GT9" s="11"/>
+      <c r="GU9" s="11"/>
+      <c r="GV9" s="10"/>
+      <c r="GW9" s="11"/>
+      <c r="GX9" s="11"/>
+      <c r="GY9" s="10"/>
+      <c r="GZ9" s="11"/>
+      <c r="HA9" s="11"/>
+      <c r="HB9" s="10"/>
+      <c r="HC9" s="11"/>
+      <c r="HD9" s="11"/>
+      <c r="HE9" s="10"/>
+      <c r="HF9" s="11"/>
+      <c r="HG9" s="11"/>
+      <c r="HH9" s="10"/>
+      <c r="HI9" s="11"/>
+      <c r="HJ9" s="11"/>
+      <c r="HK9" s="10"/>
+      <c r="HL9" s="11"/>
+      <c r="HM9" s="11"/>
+      <c r="HN9" s="10"/>
+      <c r="HO9" s="11"/>
+      <c r="HP9" s="11"/>
+      <c r="HQ9" s="10"/>
+      <c r="HR9" s="11"/>
+      <c r="HS9" s="11"/>
+      <c r="HT9" s="10"/>
+      <c r="HU9" s="11"/>
+      <c r="HV9" s="11"/>
+      <c r="HW9" s="10"/>
+      <c r="HX9" s="11"/>
+      <c r="HY9" s="11"/>
+      <c r="HZ9" s="10"/>
+      <c r="IA9" s="11"/>
+      <c r="IB9" s="11"/>
+      <c r="IC9" s="10"/>
+      <c r="ID9" s="11"/>
+      <c r="IE9" s="11"/>
+      <c r="IF9" s="10"/>
+      <c r="IG9" s="11"/>
+      <c r="IH9" s="11"/>
+      <c r="II9" s="10"/>
+      <c r="IJ9" s="11"/>
+      <c r="IK9" s="11"/>
+      <c r="IL9" s="10"/>
+      <c r="IM9" s="11"/>
+      <c r="IN9" s="11"/>
+      <c r="IO9" s="10"/>
+      <c r="IP9" s="11"/>
+      <c r="IQ9" s="11"/>
+      <c r="IR9" s="10"/>
+      <c r="IS9" s="11"/>
+      <c r="IT9" s="11"/>
+      <c r="IU9" s="10"/>
+      <c r="IV9" s="11"/>
+      <c r="IW9" s="11"/>
+      <c r="IX9" s="10"/>
+      <c r="IY9" s="11"/>
+      <c r="IZ9" s="11"/>
+      <c r="JA9" s="10"/>
+      <c r="JB9" s="11"/>
+      <c r="JC9" s="11"/>
+      <c r="JD9" s="10"/>
+      <c r="JE9" s="11"/>
+      <c r="JF9" s="11"/>
+      <c r="JG9" s="10"/>
+      <c r="JH9" s="11"/>
+      <c r="JI9" s="11"/>
+      <c r="JJ9" s="10"/>
+      <c r="JK9" s="11"/>
+      <c r="JL9" s="11"/>
+      <c r="JM9" s="10"/>
+      <c r="JN9" s="11"/>
+      <c r="JO9" s="11"/>
+      <c r="JP9" s="10"/>
+      <c r="JQ9" s="11"/>
+      <c r="JR9" s="11"/>
+      <c r="JS9" s="10"/>
+      <c r="JT9" s="11"/>
+      <c r="JU9" s="11"/>
+      <c r="JV9" s="10"/>
+      <c r="JW9" s="11"/>
+      <c r="JX9" s="11"/>
+      <c r="JY9" s="10"/>
+      <c r="JZ9" s="11"/>
+      <c r="KA9" s="11"/>
+      <c r="KB9" s="10"/>
+      <c r="KC9" s="11"/>
+      <c r="KD9" s="11"/>
+      <c r="KE9" s="10"/>
+      <c r="KF9" s="11"/>
+      <c r="KG9" s="11"/>
+      <c r="KH9" s="10"/>
+      <c r="KI9" s="11"/>
+      <c r="KJ9" s="11"/>
+      <c r="KK9" s="10"/>
+      <c r="KL9" s="11"/>
+      <c r="KM9" s="11"/>
+      <c r="KN9" s="10"/>
+      <c r="KO9" s="11"/>
+      <c r="KP9" s="11"/>
+      <c r="KQ9" s="10"/>
+      <c r="KR9" s="11"/>
+      <c r="KS9" s="11"/>
+      <c r="KT9" s="10"/>
+      <c r="KU9" s="11"/>
+      <c r="KV9" s="11"/>
+      <c r="KW9" s="10"/>
+      <c r="KX9" s="11"/>
+      <c r="KY9" s="11"/>
+      <c r="KZ9" s="10"/>
+      <c r="LA9" s="11"/>
+      <c r="LB9" s="11"/>
+      <c r="LC9" s="10"/>
+      <c r="LD9" s="11"/>
+      <c r="LE9" s="11"/>
+      <c r="LF9" s="10"/>
+      <c r="LG9" s="11"/>
+      <c r="LH9" s="11"/>
+      <c r="LI9" s="10"/>
+      <c r="LJ9" s="11"/>
+      <c r="LK9" s="11"/>
+      <c r="LL9" s="10"/>
+      <c r="LM9" s="11"/>
+      <c r="LN9" s="11"/>
+      <c r="LO9" s="10"/>
+      <c r="LP9" s="11"/>
+      <c r="LQ9" s="11"/>
+      <c r="LR9" s="10"/>
+      <c r="LS9" s="11"/>
+      <c r="LT9" s="11"/>
+      <c r="LU9" s="10"/>
+      <c r="LV9" s="11"/>
+      <c r="LW9" s="11"/>
+      <c r="LX9" s="10"/>
+      <c r="LY9" s="11"/>
+      <c r="LZ9" s="11"/>
+      <c r="MA9" s="10"/>
+      <c r="MB9" s="11"/>
+      <c r="MC9" s="11"/>
+      <c r="MD9" s="10"/>
+      <c r="ME9" s="11"/>
+      <c r="MF9" s="11"/>
+      <c r="MG9" s="10"/>
+      <c r="MH9" s="11"/>
+      <c r="MI9" s="11"/>
+      <c r="MJ9" s="10"/>
+      <c r="MK9" s="11"/>
+      <c r="ML9" s="11"/>
+      <c r="MM9" s="10"/>
+      <c r="MN9" s="11"/>
+      <c r="MO9" s="11"/>
+      <c r="MP9" s="10"/>
+      <c r="MQ9" s="11"/>
+      <c r="MR9" s="11"/>
+      <c r="MS9" s="10"/>
+      <c r="MT9" s="11"/>
+      <c r="MU9" s="11"/>
+      <c r="MV9" s="10"/>
+      <c r="MW9" s="11"/>
+      <c r="MX9" s="11"/>
+      <c r="MY9" s="10"/>
+      <c r="MZ9" s="11"/>
+      <c r="NA9" s="11"/>
+      <c r="NB9" s="10"/>
+      <c r="NC9" s="11"/>
+      <c r="ND9" s="11"/>
+      <c r="NE9" s="10"/>
+      <c r="NF9" s="11"/>
+      <c r="NG9" s="11"/>
+      <c r="NH9" s="10"/>
+      <c r="NI9" s="11"/>
+      <c r="NJ9" s="11"/>
+      <c r="NK9" s="10"/>
+      <c r="NL9" s="11"/>
+      <c r="NM9" s="11"/>
+      <c r="NN9" s="10"/>
+      <c r="NO9" s="11"/>
+      <c r="NP9" s="11"/>
+      <c r="NQ9" s="10"/>
+      <c r="NR9" s="11"/>
+      <c r="NS9" s="11"/>
+      <c r="NT9" s="10"/>
+      <c r="NU9" s="11"/>
+      <c r="NV9" s="11"/>
+      <c r="NW9" s="10"/>
+      <c r="NX9" s="11"/>
+      <c r="NY9" s="11"/>
+      <c r="NZ9" s="10"/>
+      <c r="OA9" s="11"/>
+      <c r="OB9" s="11"/>
+      <c r="OC9" s="10"/>
+      <c r="OD9" s="11"/>
+      <c r="OE9" s="11"/>
+      <c r="OF9" s="10"/>
+      <c r="OG9" s="11"/>
+      <c r="OH9" s="11"/>
+      <c r="OI9" s="10"/>
+      <c r="OJ9" s="11"/>
+      <c r="OK9" s="11"/>
+      <c r="OL9" s="10"/>
+      <c r="OM9" s="11"/>
+      <c r="ON9" s="11"/>
+      <c r="OO9" s="10"/>
+      <c r="OP9" s="11"/>
+      <c r="OQ9" s="11"/>
+      <c r="OR9" s="10"/>
+      <c r="OS9" s="11"/>
+      <c r="OT9" s="11"/>
+      <c r="OU9" s="10"/>
+      <c r="OV9" s="11"/>
+      <c r="OW9" s="11"/>
+      <c r="OX9" s="10"/>
+      <c r="OY9" s="11"/>
+      <c r="OZ9" s="11"/>
+      <c r="PA9" s="10"/>
+      <c r="PB9" s="11"/>
+      <c r="PC9" s="11"/>
+      <c r="PD9" s="10"/>
+      <c r="PE9" s="11"/>
+      <c r="PF9" s="11"/>
+      <c r="PG9" s="10"/>
+      <c r="PH9" s="11"/>
+      <c r="PI9" s="11"/>
+      <c r="PJ9" s="10"/>
+      <c r="PK9" s="11"/>
+      <c r="PL9" s="11"/>
+      <c r="PM9" s="10"/>
+      <c r="PN9" s="11"/>
+      <c r="PO9" s="11"/>
+      <c r="PP9" s="10"/>
+      <c r="PQ9" s="11"/>
+      <c r="PR9" s="11"/>
+      <c r="PS9" s="10"/>
+      <c r="PT9" s="11"/>
+      <c r="PU9" s="11"/>
+      <c r="PV9" s="10"/>
+      <c r="PW9" s="11"/>
+      <c r="PX9" s="11"/>
+      <c r="PY9" s="10"/>
+      <c r="PZ9" s="11"/>
+      <c r="QA9" s="11"/>
+      <c r="QB9" s="10"/>
+      <c r="QC9" s="11"/>
+      <c r="QD9" s="11"/>
+      <c r="QE9" s="10"/>
+      <c r="QF9" s="11"/>
+      <c r="QG9" s="11"/>
+      <c r="QH9" s="10"/>
+      <c r="QI9" s="11"/>
+      <c r="QJ9" s="11"/>
+      <c r="QK9" s="10"/>
+      <c r="QL9" s="11"/>
+      <c r="QM9" s="11"/>
+      <c r="QN9" s="10"/>
+      <c r="QO9" s="11"/>
+      <c r="QP9" s="11"/>
+      <c r="QQ9" s="10"/>
+      <c r="QR9" s="11"/>
+      <c r="QS9" s="11"/>
+      <c r="QT9" s="10"/>
+      <c r="QU9" s="11"/>
+      <c r="QV9" s="11"/>
+      <c r="QW9" s="10"/>
+      <c r="QX9" s="11"/>
+      <c r="QY9" s="11"/>
+      <c r="QZ9" s="10"/>
+      <c r="RA9" s="11"/>
+      <c r="RB9" s="11"/>
+      <c r="RC9" s="10"/>
+      <c r="RD9" s="11"/>
+      <c r="RE9" s="11"/>
+      <c r="RF9" s="10"/>
+      <c r="RG9" s="11"/>
+      <c r="RH9" s="11"/>
+      <c r="RI9" s="10"/>
+      <c r="RJ9" s="11"/>
+      <c r="RK9" s="11"/>
+      <c r="RL9" s="10"/>
+      <c r="RM9" s="11"/>
+      <c r="RN9" s="11"/>
+      <c r="RO9" s="10"/>
+      <c r="RP9" s="11"/>
+      <c r="RQ9" s="11"/>
+      <c r="RR9" s="10"/>
+      <c r="RS9" s="11"/>
+      <c r="RT9" s="11"/>
+      <c r="RU9" s="10"/>
+      <c r="RV9" s="11"/>
+      <c r="RW9" s="11"/>
+      <c r="RX9" s="10"/>
+      <c r="RY9" s="11"/>
+      <c r="RZ9" s="11"/>
+      <c r="SA9" s="10"/>
+      <c r="SB9" s="11"/>
+      <c r="SC9" s="11"/>
+      <c r="SD9" s="10"/>
+      <c r="SE9" s="11"/>
+      <c r="SF9" s="11"/>
+      <c r="SG9" s="10"/>
+      <c r="SH9" s="11"/>
+      <c r="SI9" s="11"/>
+      <c r="SJ9" s="10"/>
+      <c r="SK9" s="11"/>
+      <c r="SL9" s="11"/>
+      <c r="SM9" s="10"/>
+      <c r="SN9" s="11"/>
+      <c r="SO9" s="11"/>
+      <c r="SP9" s="10"/>
+      <c r="SQ9" s="11"/>
+      <c r="SR9" s="11"/>
+      <c r="SS9" s="10"/>
+      <c r="ST9" s="11"/>
+      <c r="SU9" s="11"/>
+      <c r="SV9" s="10"/>
+      <c r="SW9" s="11"/>
+      <c r="SX9" s="11"/>
+      <c r="SY9" s="10"/>
+      <c r="SZ9" s="11"/>
+      <c r="TA9" s="11"/>
+      <c r="TB9" s="10"/>
+      <c r="TC9" s="11"/>
+      <c r="TD9" s="11"/>
+      <c r="TE9" s="10"/>
+      <c r="TF9" s="11"/>
+      <c r="TG9" s="11"/>
+      <c r="TH9" s="10"/>
+      <c r="TI9" s="11"/>
+      <c r="TJ9" s="11"/>
+      <c r="TK9" s="10"/>
+      <c r="TL9" s="11"/>
+      <c r="TM9" s="11"/>
+      <c r="TN9" s="10"/>
+      <c r="TO9" s="11"/>
+      <c r="TP9" s="11"/>
+      <c r="TQ9" s="10"/>
+      <c r="TR9" s="11"/>
+      <c r="TS9" s="11"/>
+      <c r="TT9" s="10"/>
+      <c r="TU9" s="11"/>
+      <c r="TV9" s="11"/>
+      <c r="TW9" s="10"/>
+      <c r="TX9" s="11"/>
+      <c r="TY9" s="11"/>
+      <c r="TZ9" s="10"/>
+      <c r="UA9" s="11"/>
+      <c r="UB9" s="11"/>
+      <c r="UC9" s="10"/>
+      <c r="UD9" s="11"/>
+      <c r="UE9" s="11"/>
+      <c r="UF9" s="10"/>
+      <c r="UG9" s="11"/>
+      <c r="UH9" s="11"/>
+      <c r="UI9" s="10"/>
+      <c r="UJ9" s="11"/>
+      <c r="UK9" s="11"/>
+      <c r="UL9" s="10"/>
+      <c r="UM9" s="11"/>
+      <c r="UN9" s="11"/>
+      <c r="UO9" s="10"/>
+      <c r="UP9" s="11"/>
+      <c r="UQ9" s="11"/>
+      <c r="UR9" s="10"/>
+      <c r="US9" s="11"/>
+      <c r="UT9" s="11"/>
+      <c r="UU9" s="10"/>
+      <c r="UV9" s="11"/>
+      <c r="UW9" s="11"/>
+      <c r="UX9" s="10"/>
+      <c r="UY9" s="11"/>
+      <c r="UZ9" s="11"/>
+      <c r="VA9" s="10"/>
+      <c r="VB9" s="11"/>
+      <c r="VC9" s="11"/>
+      <c r="VD9" s="10"/>
+      <c r="VE9" s="11"/>
+      <c r="VF9" s="11"/>
+      <c r="VG9" s="10"/>
+      <c r="VH9" s="11"/>
+      <c r="VI9" s="11"/>
+      <c r="VJ9" s="10"/>
+      <c r="VK9" s="11"/>
+      <c r="VL9" s="11"/>
+      <c r="VM9" s="10"/>
+      <c r="VN9" s="11"/>
+      <c r="VO9" s="11"/>
+      <c r="VP9" s="10"/>
+      <c r="VQ9" s="11"/>
+      <c r="VR9" s="11"/>
+      <c r="VS9" s="10"/>
+      <c r="VT9" s="11"/>
+      <c r="VU9" s="11"/>
+      <c r="VV9" s="10"/>
+      <c r="VW9" s="11"/>
+      <c r="VX9" s="11"/>
+      <c r="VY9" s="10"/>
+      <c r="VZ9" s="11"/>
+      <c r="WA9" s="11"/>
+      <c r="WB9" s="10"/>
+      <c r="WC9" s="11"/>
+      <c r="WD9" s="11"/>
+      <c r="WE9" s="10"/>
+      <c r="WF9" s="11"/>
+      <c r="WG9" s="11"/>
+      <c r="WH9" s="10"/>
+      <c r="WI9" s="11"/>
+      <c r="WJ9" s="11"/>
+      <c r="WK9" s="10"/>
+      <c r="WL9" s="11"/>
+      <c r="WM9" s="11"/>
+      <c r="WN9" s="10"/>
+      <c r="WO9" s="11"/>
+      <c r="WP9" s="11"/>
+      <c r="WQ9" s="10"/>
+      <c r="WR9" s="11"/>
+      <c r="WS9" s="11"/>
+      <c r="WT9" s="10"/>
+      <c r="WU9" s="11"/>
+      <c r="WV9" s="11"/>
+      <c r="WW9" s="10"/>
+      <c r="WX9" s="11"/>
+      <c r="WY9" s="11"/>
+      <c r="WZ9" s="10"/>
+      <c r="XA9" s="11"/>
+      <c r="XB9" s="11"/>
+      <c r="XC9" s="10"/>
+      <c r="XD9" s="11"/>
+      <c r="XE9" s="11"/>
+      <c r="XF9" s="10"/>
+      <c r="XG9" s="11"/>
+      <c r="XH9" s="11"/>
+      <c r="XI9" s="10"/>
+      <c r="XJ9" s="11"/>
+      <c r="XK9" s="11"/>
+      <c r="XL9" s="10"/>
+      <c r="XM9" s="11"/>
+      <c r="XN9" s="11"/>
+      <c r="XO9" s="10"/>
+      <c r="XP9" s="11"/>
+      <c r="XQ9" s="11"/>
+      <c r="XR9" s="10"/>
+      <c r="XS9" s="11"/>
+      <c r="XT9" s="11"/>
+      <c r="XU9" s="10"/>
+      <c r="XV9" s="11"/>
+      <c r="XW9" s="11"/>
+      <c r="XX9" s="10"/>
+      <c r="XY9" s="11"/>
+      <c r="XZ9" s="11"/>
+      <c r="YA9" s="10"/>
+      <c r="YB9" s="11"/>
+      <c r="YC9" s="11"/>
+      <c r="YD9" s="10"/>
+      <c r="YE9" s="11"/>
+      <c r="YF9" s="11"/>
+      <c r="YG9" s="10"/>
+      <c r="YH9" s="11"/>
+      <c r="YI9" s="11"/>
+      <c r="YJ9" s="10"/>
+      <c r="YK9" s="11"/>
+      <c r="YL9" s="11"/>
+      <c r="YM9" s="10"/>
+      <c r="YN9" s="11"/>
+      <c r="YO9" s="11"/>
+      <c r="YP9" s="10"/>
+      <c r="YQ9" s="11"/>
+      <c r="YR9" s="11"/>
+      <c r="YS9" s="10"/>
+      <c r="YT9" s="11"/>
+      <c r="YU9" s="11"/>
+      <c r="YV9" s="10"/>
+      <c r="YW9" s="11"/>
+      <c r="YX9" s="11"/>
+      <c r="YY9" s="10"/>
+      <c r="YZ9" s="11"/>
+      <c r="ZA9" s="11"/>
+      <c r="ZB9" s="10"/>
+      <c r="ZC9" s="11"/>
+      <c r="ZD9" s="11"/>
+      <c r="ZE9" s="10"/>
+      <c r="ZF9" s="11"/>
+      <c r="ZG9" s="11"/>
+      <c r="ZH9" s="10"/>
+      <c r="ZI9" s="11"/>
+      <c r="ZJ9" s="11"/>
+      <c r="ZK9" s="10"/>
+      <c r="ZL9" s="11"/>
+      <c r="ZM9" s="11"/>
+      <c r="ZN9" s="10"/>
+      <c r="ZO9" s="11"/>
+      <c r="ZP9" s="11"/>
+      <c r="ZQ9" s="10"/>
+      <c r="ZR9" s="11"/>
+      <c r="ZS9" s="11"/>
+      <c r="ZT9" s="10"/>
+      <c r="ZU9" s="11"/>
+      <c r="ZV9" s="11"/>
+      <c r="ZW9" s="10"/>
+      <c r="ZX9" s="11"/>
+      <c r="ZY9" s="11"/>
+      <c r="ZZ9" s="10"/>
+      <c r="AAA9" s="11"/>
+      <c r="AAB9" s="11"/>
+      <c r="AAC9" s="10"/>
+      <c r="AAD9" s="11"/>
+      <c r="AAE9" s="11"/>
+      <c r="AAF9" s="10"/>
+      <c r="AAG9" s="11"/>
+      <c r="AAH9" s="11"/>
+      <c r="AAI9" s="10"/>
+      <c r="AAJ9" s="11"/>
+      <c r="AAK9" s="11"/>
+      <c r="AAL9" s="10"/>
+      <c r="AAM9" s="11"/>
+      <c r="AAN9" s="11"/>
+      <c r="AAO9" s="10"/>
+      <c r="AAP9" s="11"/>
+      <c r="AAQ9" s="11"/>
+      <c r="AAR9" s="10"/>
+      <c r="AAS9" s="11"/>
+      <c r="AAT9" s="11"/>
+      <c r="AAU9" s="10"/>
+      <c r="AAV9" s="11"/>
+      <c r="AAW9" s="11"/>
+      <c r="AAX9" s="10"/>
+      <c r="AAY9" s="11"/>
+      <c r="AAZ9" s="11"/>
+      <c r="ABA9" s="10"/>
+      <c r="ABB9" s="11"/>
+      <c r="ABC9" s="11"/>
+      <c r="ABD9" s="10"/>
+      <c r="ABE9" s="11"/>
+      <c r="ABF9" s="11"/>
+      <c r="ABG9" s="10"/>
+      <c r="ABH9" s="11"/>
+      <c r="ABI9" s="11"/>
+      <c r="ABJ9" s="10"/>
+      <c r="ABK9" s="11"/>
+      <c r="ABL9" s="11"/>
+      <c r="ABM9" s="10"/>
+      <c r="ABN9" s="11"/>
+      <c r="ABO9" s="11"/>
+      <c r="ABP9" s="10"/>
+      <c r="ABQ9" s="11"/>
+      <c r="ABR9" s="11"/>
+      <c r="ABS9" s="10"/>
+      <c r="ABT9" s="11"/>
+      <c r="ABU9" s="11"/>
+      <c r="ABV9" s="10"/>
+      <c r="ABW9" s="11"/>
+      <c r="ABX9" s="11"/>
+      <c r="ABY9" s="10"/>
+      <c r="ABZ9" s="11"/>
+      <c r="ACA9" s="11"/>
+      <c r="ACB9" s="10"/>
+      <c r="ACC9" s="11"/>
+      <c r="ACD9" s="11"/>
+      <c r="ACE9" s="10"/>
+      <c r="ACF9" s="11"/>
+      <c r="ACG9" s="11"/>
+      <c r="ACH9" s="10"/>
+      <c r="ACI9" s="11"/>
+      <c r="ACJ9" s="11"/>
+      <c r="ACK9" s="10"/>
+      <c r="ACL9" s="11"/>
+      <c r="ACM9" s="11"/>
+      <c r="ACN9" s="10"/>
+      <c r="ACO9" s="11"/>
+      <c r="ACP9" s="11"/>
+      <c r="ACQ9" s="10"/>
+      <c r="ACR9" s="11"/>
+      <c r="ACS9" s="11"/>
+      <c r="ACT9" s="10"/>
+      <c r="ACU9" s="11"/>
+      <c r="ACV9" s="11"/>
+      <c r="ACW9" s="10"/>
+      <c r="ACX9" s="11"/>
+      <c r="ACY9" s="11"/>
+      <c r="ACZ9" s="10"/>
+      <c r="ADA9" s="11"/>
+      <c r="ADB9" s="11"/>
+      <c r="ADC9" s="10"/>
+      <c r="ADD9" s="11"/>
+      <c r="ADE9" s="11"/>
+      <c r="ADF9" s="10"/>
+      <c r="ADG9" s="11"/>
+      <c r="ADH9" s="11"/>
+      <c r="ADI9" s="10"/>
+      <c r="ADJ9" s="11"/>
+      <c r="ADK9" s="11"/>
+      <c r="ADL9" s="10"/>
+      <c r="ADM9" s="11"/>
+      <c r="ADN9" s="11"/>
+      <c r="ADO9" s="10"/>
+      <c r="ADP9" s="11"/>
+      <c r="ADQ9" s="11"/>
+      <c r="ADR9" s="10"/>
+      <c r="ADS9" s="11"/>
+      <c r="ADT9" s="11"/>
+      <c r="ADU9" s="10"/>
+      <c r="ADV9" s="11"/>
+      <c r="ADW9" s="11"/>
+      <c r="ADX9" s="10"/>
+      <c r="ADY9" s="11"/>
+      <c r="ADZ9" s="11"/>
+      <c r="AEA9" s="10"/>
+      <c r="AEB9" s="11"/>
+      <c r="AEC9" s="11"/>
+      <c r="AED9" s="10"/>
+      <c r="AEE9" s="11"/>
+      <c r="AEF9" s="11"/>
+      <c r="AEG9" s="10"/>
+      <c r="AEH9" s="11"/>
+      <c r="AEI9" s="11"/>
+      <c r="AEJ9" s="10"/>
+      <c r="AEK9" s="11"/>
+      <c r="AEL9" s="11"/>
+      <c r="AEM9" s="10"/>
+      <c r="AEN9" s="11"/>
+      <c r="AEO9" s="11"/>
+      <c r="AEP9" s="10"/>
+      <c r="AEQ9" s="11"/>
+      <c r="AER9" s="11"/>
+      <c r="AES9" s="10"/>
+      <c r="AET9" s="11"/>
+      <c r="AEU9" s="11"/>
+      <c r="AEV9" s="10"/>
+      <c r="AEW9" s="11"/>
+      <c r="AEX9" s="11"/>
+      <c r="AEY9" s="10"/>
+      <c r="AEZ9" s="11"/>
+      <c r="AFA9" s="11"/>
+      <c r="AFB9" s="10"/>
+      <c r="AFC9" s="11"/>
+      <c r="AFD9" s="11"/>
+      <c r="AFE9" s="10"/>
+      <c r="AFF9" s="11"/>
+      <c r="AFG9" s="11"/>
+      <c r="AFH9" s="10"/>
+      <c r="AFI9" s="11"/>
+      <c r="AFJ9" s="11"/>
+      <c r="AFK9" s="10"/>
+      <c r="AFL9" s="11"/>
+      <c r="AFM9" s="11"/>
+      <c r="AFN9" s="10"/>
+      <c r="AFO9" s="11"/>
+      <c r="AFP9" s="11"/>
+      <c r="AFQ9" s="10"/>
+      <c r="AFR9" s="11"/>
+      <c r="AFS9" s="11"/>
+      <c r="AFT9" s="10"/>
+      <c r="AFU9" s="11"/>
+      <c r="AFV9" s="11"/>
+      <c r="AFW9" s="10"/>
+      <c r="AFX9" s="11"/>
+      <c r="AFY9" s="11"/>
+      <c r="AFZ9" s="10"/>
+      <c r="AGA9" s="11"/>
+      <c r="AGB9" s="11"/>
+      <c r="AGC9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="410">
